--- a/GetExcelSheetData/Excel/TestData.xlsx
+++ b/GetExcelSheetData/Excel/TestData.xlsx
@@ -960,13 +960,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -980,13 +980,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>123</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GetExcelSheetData/Excel/TestData.xlsx
+++ b/GetExcelSheetData/Excel/TestData.xlsx
@@ -960,13 +960,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
@@ -980,14 +980,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>123</v>
       </c>
-      <c r="C2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GetExcelSheetData/Excel/TestData.xlsx
+++ b/GetExcelSheetData/Excel/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Username</t>
   </si>
@@ -22,7 +22,19 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Status</t>
+  </si>
+  <si>
     <t>sharad</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>bharat</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -636,10 +648,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -960,32 +975,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>123</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>456</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/GetExcelSheetData/Excel/TestData.xlsx
+++ b/GetExcelSheetData/Excel/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Username</t>
   </si>
@@ -22,19 +22,43 @@
     <t>Password</t>
   </si>
   <si>
+    <t>Grade</t>
+  </si>
+  <si>
     <t>Status</t>
   </si>
   <si>
+    <t>Phone number</t>
+  </si>
+  <si>
+    <t>Zip code</t>
+  </si>
+  <si>
     <t>sharad</t>
   </si>
   <si>
+    <t>A+</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>bharat</t>
+    <t>Jigar</t>
+  </si>
+  <si>
+    <t>B+</t>
   </si>
   <si>
     <t>Fail</t>
+  </si>
+  <si>
+    <t>Sarthak</t>
+  </si>
+  <si>
+    <t>Sarthak123</t>
+  </si>
+  <si>
+    <t>Siddhant</t>
   </si>
 </sst>
 </file>
@@ -975,19 +999,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="5" max="5" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -997,27 +1022,94 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9558749522</v>
+      </c>
+      <c r="F2" s="2">
+        <v>30008</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>456</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9558749523</v>
+      </c>
+      <c r="F3" s="2">
+        <v>30009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9558749524</v>
+      </c>
+      <c r="F4" s="2">
+        <v>30010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2">
+        <v>9558749525</v>
+      </c>
+      <c r="F5" s="2">
+        <v>30011</v>
       </c>
     </row>
   </sheetData>

--- a/GetExcelSheetData/Excel/TestData.xlsx
+++ b/GetExcelSheetData/Excel/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -22,22 +22,16 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Grade</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
-    <t>Phone number</t>
+    <t>Phonenumber</t>
   </si>
   <si>
-    <t>Zip code</t>
+    <t>Zipcode</t>
   </si>
   <si>
     <t>sharad</t>
-  </si>
-  <si>
-    <t>A+</t>
   </si>
   <si>
     <t>Pass</t>
@@ -46,16 +40,10 @@
     <t>Jigar</t>
   </si>
   <si>
-    <t>B+</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
     <t>Sarthak</t>
-  </si>
-  <si>
-    <t>Sarthak123</t>
   </si>
   <si>
     <t>Siddhant</t>
@@ -672,10 +660,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -999,20 +990,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="5" max="5" width="15.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1028,87 +1019,72 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>123</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2">
+        <v>9558749522</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>9558749522</v>
-      </c>
-      <c r="F2" s="2">
-        <v>30008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
       </c>
       <c r="B3" s="2">
         <v>456</v>
       </c>
       <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2">
+        <v>9558749523</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>123</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2">
+        <v>9558749524</v>
+      </c>
+      <c r="E4" s="2">
+        <v>30010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9558749523</v>
-      </c>
-      <c r="F3" s="2">
-        <v>30009</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>9558749524</v>
-      </c>
-      <c r="F4" s="2">
-        <v>30010</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>14</v>
       </c>
       <c r="B5" s="1">
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>9558749525</v>
       </c>
       <c r="E5" s="2">
-        <v>9558749525</v>
-      </c>
-      <c r="F5" s="2">
         <v>30011</v>
       </c>
     </row>

--- a/GetExcelSheetData/Excel/TestData.xlsx
+++ b/GetExcelSheetData/Excel/TestData.xlsx
@@ -993,7 +993,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>

--- a/GetExcelSheetData/Excel/TestData.xlsx
+++ b/GetExcelSheetData/Excel/TestData.xlsx
@@ -660,13 +660,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -993,7 +990,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="A1" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="4"/>
@@ -1058,7 +1055,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>123</v>
       </c>
       <c r="C4" t="s">
